--- a/biology/Botanique/Ibéris_de_Prost/Ibéris_de_Prost.xlsx
+++ b/biology/Botanique/Ibéris_de_Prost/Ibéris_de_Prost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_de_Prost</t>
+          <t>Ibéris_de_Prost</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iberis linifolia, de noms communs Ibéris à feuilles de lin ou Ibéris de Prost, est une espèce de plantes à fleurs herbacées annuelles du genre Iberis et de la famille des Brassicacées. 
-L'espèce est inscrite sur la Liste des espèces végétales protégées en région Provence-Alpes-Côte-d'Azur[2].
+L'espèce est inscrite sur la Liste des espèces végétales protégées en région Provence-Alpes-Côte-d'Azur.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_de_Prost</t>
+          <t>Ibéris_de_Prost</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante bisannuelle, glabre ; la tige est haute de 30 à 60 cm, grêle, à rameaux étalés-dressés ; les feuilles radicales sont lancéolées-linéaires, presque entières, les caulinaires étroitement linéaires, entières[3].
-Appareil reproducteur
-Les fleurs sont roses ou lilacées, assez petites ; les pétales sont oblongs, en grappe fructifère courte, en corymbe petit et serré, à pédicelles dressés. Les fruits sont des silicules petites, suborbiculaires, rétrécies et ailées seulement au sommet, à échancrure peu marquée, à lobes petits, aigus, divariqués ; le style dépasse longuement les lobes[3]. La période de floraison s'étend de août à octobre[4],[5]. 
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante bisannuelle, glabre ; la tige est haute de 30 à 60 cm, grêle, à rameaux étalés-dressés ; les feuilles radicales sont lancéolées-linéaires, presque entières, les caulinaires étroitement linéaires, entières.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_de_Prost</t>
+          <t>Ibéris_de_Prost</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle pousse dans les rocailles et les pelouses rocailleuses des coteaux de la région méditerranéenne, jusqu'à une altitude de 1 800 m[5]. Cette espèce est uniquement présente en France et en Italie[4]. 
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont roses ou lilacées, assez petites ; les pétales sont oblongs, en grappe fructifère courte, en corymbe petit et serré, à pédicelles dressés. Les fruits sont des silicules petites, suborbiculaires, rétrécies et ailées seulement au sommet, à échancrure peu marquée, à lobes petits, aigus, divariqués ; le style dépasse longuement les lobes. La période de floraison s'étend de août à octobre,. 
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_de_Prost</t>
+          <t>Ibéris_de_Prost</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,18 +595,91 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse dans les rocailles et les pelouses rocailleuses des coteaux de la région méditerranéenne, jusqu'à une altitude de 1 800 m. Cette espèce est uniquement présente en France et en Italie. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ibéris_de_Prost</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ib%C3%A9ris_de_Prost</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sous-espèces
-Iberis linifolia subsp. linifolia - l'Ibéris intermédiaire
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iberis linifolia subsp. linifolia - l'Ibéris intermédiaire
 Iberis linifolia subsp. stricta (Jord.) P. Fourn.
-Iberis linifolia subsp. violletii (Soy.-Will. ex Godr.) Valdés[6]
-La sous-espèce linifolia a des fleurs lilas-clair ou blanchâtres alors qu'elles sont foncées chez la sous-espèce stricta[3].
-Synonymes
-Biauricula linifolia (L.) Bubani
+Iberis linifolia subsp. violletii (Soy.-Will. ex Godr.) Valdés
+La sous-espèce linifolia a des fleurs lilas-clair ou blanchâtres alors qu'elles sont foncées chez la sous-espèce stricta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ibéris_de_Prost</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ib%C3%A9ris_de_Prost</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biauricula linifolia (L.) Bubani
 Iberis intermedia subsp. beugesiaca J.-M. Tison
 Iberis boppardensis Jord.
 Iberis intermedia subsp. boppardensis (Jord.) Korneck
@@ -594,7 +688,7 @@
 Iberis intermedia subsp. dunalii (Bubani) O. Bolòs &amp; Vigo
 Iberis dunalii (Bubani) Cadevall &amp; Sallent
 Iberis intermedia Guers.
-Biauricula intermedia (Guers.) Lunell[7]</t>
+Biauricula intermedia (Guers.) Lunell</t>
         </is>
       </c>
     </row>
